--- a/web/Statistik/Players/Template Statistik Player.xlsx
+++ b/web/Statistik/Players/Template Statistik Player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meiiko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meiiko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Game LOGS</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>CLS vs BPJ</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,13 +218,10 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,50 +504,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -697,6 +723,406 @@
         <v>13</v>
       </c>
       <c r="Z3" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>42811</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2">
+        <v>34.07</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>42804</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2">
+        <v>34.07</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>3</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>42802</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2">
+        <v>34.07</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>42800</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2">
+        <v>34.07</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>42795</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>34.07</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N8" s="2">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2">
+        <v>5</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>3</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="2">
         <v>11</v>
       </c>
     </row>
@@ -705,5 +1131,6 @@
     <mergeCell ref="A1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>